--- a/gold/excel/profitability_summary.xlsx
+++ b/gold/excel/profitability_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,371 +493,926 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL2240</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93025.10249999999</v>
+        <v>36651.01</v>
       </c>
       <c r="C2" t="n">
-        <v>13473.92</v>
+        <v>13330.89</v>
       </c>
       <c r="D2" t="n">
-        <v>4005.26</v>
+        <v>8872.98</v>
       </c>
       <c r="E2" t="n">
-        <v>20110.6</v>
+        <v>16778.86</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1500</v>
+        <v>10488</v>
       </c>
       <c r="H2" t="n">
-        <v>32479.18</v>
+        <v>49470.73</v>
       </c>
       <c r="I2" t="n">
-        <v>55435.3225</v>
+        <v>-2331.72</v>
       </c>
       <c r="J2" t="n">
-        <v>60545.9225</v>
+        <v>-12819.72</v>
       </c>
       <c r="K2" t="n">
-        <v>65.09</v>
+        <v>-34.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL8121</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100923.99</v>
+        <v>38517.45</v>
       </c>
       <c r="C3" t="n">
-        <v>5477.92</v>
+        <v>2780.13</v>
       </c>
       <c r="D3" t="n">
-        <v>1612.25</v>
+        <v>3095.32</v>
       </c>
       <c r="E3" t="n">
-        <v>16509.98</v>
+        <v>10383.45</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1500</v>
+        <v>7068.63</v>
       </c>
       <c r="H3" t="n">
-        <v>22090.17</v>
+        <v>23327.53</v>
       </c>
       <c r="I3" t="n">
-        <v>77323.84</v>
+        <v>22258.55</v>
       </c>
       <c r="J3" t="n">
-        <v>78833.82000000001</v>
+        <v>15189.92</v>
       </c>
       <c r="K3" t="n">
-        <v>78.11</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL9519</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152453.1675</v>
+        <v>196959.99</v>
       </c>
       <c r="C4" t="n">
-        <v>21632.35</v>
+        <v>55306.48</v>
       </c>
       <c r="D4" t="n">
-        <v>2902.43</v>
+        <v>36959.18</v>
       </c>
       <c r="E4" t="n">
-        <v>31952.7</v>
+        <v>41376.41</v>
       </c>
       <c r="F4" t="n">
-        <v>710</v>
+        <v>26017.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1500</v>
+        <v>29572.29</v>
       </c>
       <c r="H4" t="n">
-        <v>40244.78</v>
+        <v>189231.68</v>
       </c>
       <c r="I4" t="n">
-        <v>95255.6875</v>
+        <v>37300.6</v>
       </c>
       <c r="J4" t="n">
-        <v>112208.3875</v>
+        <v>7728.31</v>
       </c>
       <c r="K4" t="n">
-        <v>73.59999999999999</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL3335</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34322.04</v>
+        <v>42465.4</v>
       </c>
       <c r="C5" t="n">
-        <v>5720.27</v>
+        <v>4793.33</v>
       </c>
       <c r="D5" t="n">
-        <v>2041.48</v>
+        <v>4056.78</v>
       </c>
       <c r="E5" t="n">
-        <v>17202.86</v>
+        <v>12992.39</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11228.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1500</v>
+        <v>7800.1</v>
       </c>
       <c r="H5" t="n">
-        <v>22761.75</v>
+        <v>40871.19</v>
       </c>
       <c r="I5" t="n">
-        <v>9357.43</v>
+        <v>9394.309999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>11560.29</v>
+        <v>1594.21</v>
       </c>
       <c r="K5" t="n">
-        <v>33.68</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86302.13250000001</v>
+        <v>36529.58</v>
       </c>
       <c r="C6" t="n">
-        <v>8492.559999999999</v>
+        <v>4187.79</v>
       </c>
       <c r="D6" t="n">
-        <v>2328.13</v>
+        <v>3939.37</v>
       </c>
       <c r="E6" t="n">
-        <v>22139.27</v>
+        <v>10907.39</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1500</v>
+        <v>7301.6</v>
       </c>
       <c r="H6" t="n">
-        <v>25820.69</v>
+        <v>26336.15</v>
       </c>
       <c r="I6" t="n">
-        <v>53342.1725</v>
+        <v>17495.03</v>
       </c>
       <c r="J6" t="n">
-        <v>60481.4425</v>
+        <v>10193.43</v>
       </c>
       <c r="K6" t="n">
-        <v>70.08</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1294</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171545.0775</v>
+        <v>39121.91</v>
       </c>
       <c r="C7" t="n">
-        <v>4567.27</v>
+        <v>9490.780000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>813.48</v>
+        <v>8703.969999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>30492.12</v>
+        <v>18217.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1500</v>
+        <v>9906.41</v>
       </c>
       <c r="H7" t="n">
-        <v>20380.75</v>
+        <v>46318.56</v>
       </c>
       <c r="I7" t="n">
-        <v>135672.2075</v>
+        <v>2709.76</v>
       </c>
       <c r="J7" t="n">
-        <v>151164.3275</v>
+        <v>-7196.65</v>
       </c>
       <c r="K7" t="n">
-        <v>88.12</v>
+        <v>-18.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL8464</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95853.6525</v>
+        <v>38593.74</v>
       </c>
       <c r="C8" t="n">
-        <v>14114.49</v>
+        <v>9910.639999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>4281.3</v>
+        <v>7336.52</v>
       </c>
       <c r="E8" t="n">
-        <v>12976.78</v>
+        <v>15470.24</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1500</v>
+        <v>8669.17</v>
       </c>
       <c r="H8" t="n">
-        <v>33395.79</v>
+        <v>41386.57</v>
       </c>
       <c r="I8" t="n">
-        <v>64481.0825</v>
+        <v>5876.34</v>
       </c>
       <c r="J8" t="n">
-        <v>62457.8625</v>
+        <v>-2792.83</v>
       </c>
       <c r="K8" t="n">
-        <v>65.16</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL1344</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101692.9125</v>
+        <v>44625.37</v>
       </c>
       <c r="C9" t="n">
-        <v>9284.16</v>
+        <v>4793.33</v>
       </c>
       <c r="D9" t="n">
-        <v>1993.63</v>
+        <v>4029.28</v>
       </c>
       <c r="E9" t="n">
-        <v>21808.63</v>
+        <v>11585.27</v>
       </c>
       <c r="F9" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1500</v>
+        <v>7924.51</v>
       </c>
       <c r="H9" t="n">
-        <v>26927.79</v>
+        <v>28332.39</v>
       </c>
       <c r="I9" t="n">
-        <v>67956.49249999999</v>
+        <v>24217.49</v>
       </c>
       <c r="J9" t="n">
-        <v>74765.1225</v>
+        <v>16292.98</v>
       </c>
       <c r="K9" t="n">
-        <v>73.52</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL2664</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167783.4525</v>
+        <v>39940.18</v>
       </c>
       <c r="C10" t="n">
-        <v>38905.02</v>
+        <v>4793.33</v>
       </c>
       <c r="D10" t="n">
-        <v>4948.02</v>
+        <v>4057.77</v>
       </c>
       <c r="E10" t="n">
-        <v>18737.01</v>
+        <v>13174.22</v>
       </c>
       <c r="F10" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1500</v>
+        <v>7766.69</v>
       </c>
       <c r="H10" t="n">
-        <v>59783.04</v>
+        <v>29792.01</v>
       </c>
       <c r="I10" t="n">
-        <v>104263.4025</v>
+        <v>17914.86</v>
       </c>
       <c r="J10" t="n">
-        <v>108000.4125</v>
+        <v>10148.17</v>
       </c>
       <c r="K10" t="n">
-        <v>64.37</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL3756</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105546.2625</v>
+        <v>39563.61</v>
       </c>
       <c r="C11" t="n">
-        <v>10718.73</v>
+        <v>3132.04</v>
       </c>
       <c r="D11" t="n">
-        <v>1986.63</v>
+        <v>3296.8</v>
       </c>
       <c r="E11" t="n">
-        <v>18490.3</v>
+        <v>11507.34</v>
       </c>
       <c r="F11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1500</v>
+        <v>6489.22</v>
       </c>
       <c r="H11" t="n">
-        <v>29905.36</v>
+        <v>24425.4</v>
       </c>
       <c r="I11" t="n">
-        <v>72150.60249999999</v>
+        <v>21627.43</v>
       </c>
       <c r="J11" t="n">
-        <v>75640.9025</v>
+        <v>15138.21</v>
       </c>
       <c r="K11" t="n">
-        <v>71.67</v>
+        <v>38.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL5997</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41483.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10692.15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9806.49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17863.39</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9504.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>47866.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3121.87</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-6382.14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-15.38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL9566</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>38059.08</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9490.780000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8624.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15481.57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9439.51</v>
+      </c>
+      <c r="H13" t="n">
+        <v>43036.76</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4461.83</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-4977.68</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-13.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>114938.91</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23754.26</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17826.48</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36475.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19506.71</v>
+      </c>
+      <c r="H14" t="n">
+        <v>97562.56</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36883.06</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17376.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL8118</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>39873.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7948.91</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8045.48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20741.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8231.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>44967.39</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3137.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-5094.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-12.78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL2977</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>230649.16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55306.48</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36891.16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>43520.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29942.73</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165660.62</v>
+      </c>
+      <c r="I16" t="n">
+        <v>94931.27</v>
+      </c>
+      <c r="J16" t="n">
+        <v>64988.54</v>
+      </c>
+      <c r="K16" t="n">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL5421</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42894.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10692.15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9555.610000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17196.11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9346.049999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>46789.92</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5450.51</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-3895.54</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-9.08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL5301</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50783.06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6067.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4108.63</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14335.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8055.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32566.99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26271.87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18216.07</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL9612</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>131931.63</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28153.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17621.28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38538.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17877.69</v>
+      </c>
+      <c r="H19" t="n">
+        <v>102190.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47618.92</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29741.23</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL6575</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>48544.14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5400.08</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4377.88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11258.09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7509.71</v>
+      </c>
+      <c r="H20" t="n">
+        <v>28545.76</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27508.09</v>
+      </c>
+      <c r="J20" t="n">
+        <v>19998.38</v>
+      </c>
+      <c r="K20" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL4876</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>32434.01</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10211.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8948.68</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17081.13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8674.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9278.299999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>54194.46</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-12482.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-21760.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-67.09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL1573</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>39805.96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9490.780000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8951.610000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15621.55</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9886.440000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>43950.38</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5742.02</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-4144.42</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-10.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL6970</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>211855.36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55306.48</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36842.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38067.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31282.13</v>
+      </c>
+      <c r="H23" t="n">
+        <v>161499.46</v>
+      </c>
+      <c r="I23" t="n">
+        <v>81638.03</v>
+      </c>
+      <c r="J23" t="n">
+        <v>50355.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5705</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>45463.11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6159.04</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4378.61</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14001.68</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7313.89</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31853.22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20923.78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13609.89</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>101040.83</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23754.26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17742.42</v>
+      </c>
+      <c r="E25" t="n">
+        <v>38853.66</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16922.66</v>
+      </c>
+      <c r="H25" t="n">
+        <v>97273</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20690.49</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3767.83</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL8222</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>39099.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3892.18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4050.39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11253.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7276.18</v>
+      </c>
+      <c r="H26" t="n">
+        <v>26471.86</v>
+      </c>
+      <c r="I26" t="n">
+        <v>19904.02</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12627.84</v>
+      </c>
+      <c r="K26" t="n">
+        <v>32.3</v>
       </c>
     </row>
   </sheetData>
